--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>05/50/5000</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,34 +476,134 @@
           <t>05/50/5000</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>100.00</t>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08/06/2000</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03/08/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>107.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03/08/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4740</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17740</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4041</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18041</v>
+      </c>
+      <c r="F5" t="n">
+        <v>301</v>
+      </c>
+      <c r="G5" t="n">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03/08/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4141.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21881.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4142.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22183.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>302.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>101.38</t>
         </is>
       </c>
     </row>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,34 +576,59 @@
           <t>03/08/2023</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4141.00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21881.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4142.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22183.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4141</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21881</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4142</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22183</v>
+      </c>
+      <c r="F6" t="n">
+        <v>302</v>
+      </c>
+      <c r="G6" t="n">
+        <v>101.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>03/08/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>25881.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26183.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>302.00</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>101.38</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>101.17</t>
         </is>
       </c>
     </row>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,26 +473,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/50/5000</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
+          <t>06/08/8000</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5001.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5001.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5050.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5050.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100.98</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -501,23 +513,35 @@
           <t>08/06/2000</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9001.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9050.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>100.54</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -526,23 +550,35 @@
           <t>03/08/2023</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>107.69</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13001.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14050.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1049.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>108.07</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -551,23 +587,35 @@
           <t>03/08/2023</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>4740</v>
-      </c>
-      <c r="C5" t="n">
-        <v>17740</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4041</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18041</v>
-      </c>
-      <c r="F5" t="n">
-        <v>301</v>
-      </c>
-      <c r="G5" t="n">
-        <v>101.7</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4740.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>17741.00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4041.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18091.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>350.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>101.97</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -576,23 +624,35 @@
           <t>03/08/2023</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4141</v>
-      </c>
-      <c r="C6" t="n">
-        <v>21881</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4142</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22183</v>
-      </c>
-      <c r="F6" t="n">
-        <v>302</v>
-      </c>
-      <c r="G6" t="n">
-        <v>101.38</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4141.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21882.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4142.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22233.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>351.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>101.60</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -608,7 +668,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25881.00</t>
+          <t>25882.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -618,17 +678,54 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26183.00</t>
+          <t>26233.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>302.00</t>
+          <t>351.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>101.17</t>
+          <t>101.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05/08/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>33882.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34233.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>351.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>101.04</t>
         </is>
       </c>
     </row>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,35 +476,23 @@
           <t>06/08/8000</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5001.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5001.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5050.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5050.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>49.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>100.98</t>
-        </is>
+      <c r="B2" t="n">
+        <v>5001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5050</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5050</v>
+      </c>
+      <c r="F2" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100.98</v>
       </c>
     </row>
     <row r="3">
@@ -513,35 +501,23 @@
           <t>08/06/2000</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9001.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9050.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>49.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100.54</t>
-        </is>
+      <c r="B3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9050</v>
+      </c>
+      <c r="F3" t="n">
+        <v>49</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100.54</v>
       </c>
     </row>
     <row r="4">
@@ -550,71 +526,59 @@
           <t>03/08/2023</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13001.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>14050.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1049.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>108.07</t>
-        </is>
+      <c r="B4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14050</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1049</v>
+      </c>
+      <c r="G4" t="n">
+        <v>108.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>05/08/5000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4740.00</t>
+          <t>5000.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17741.00</t>
+          <t>18001.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4041.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18091.00</t>
+          <t>15050.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>350.00</t>
+          <t>2951.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>101.97</t>
+          <t>83.61</t>
         </is>
       </c>
     </row>
@@ -631,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21882.00</t>
+          <t>22142.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,17 +605,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22233.00</t>
+          <t>19192.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>351.00</t>
+          <t>2950.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>101.60</t>
+          <t>86.68</t>
         </is>
       </c>
     </row>
@@ -668,7 +632,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25882.00</t>
+          <t>26142.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -678,17 +642,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26233.00</t>
+          <t>23192.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>351.00</t>
+          <t>2950.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>101.36</t>
+          <t>88.72</t>
         </is>
       </c>
     </row>
@@ -705,7 +669,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>33882.00</t>
+          <t>34142.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -715,17 +679,54 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>34233.00</t>
+          <t>31192.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>351.00</t>
+          <t>2950.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>101.04</t>
+          <t>91.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05/08/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>42142.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39192.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2950.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>93.00</t>
         </is>
       </c>
     </row>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,35 +551,23 @@
           <t>05/08/5000</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18001.00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15050.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2951.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>83.61</t>
-        </is>
+      <c r="B5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15050</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2951</v>
+      </c>
+      <c r="G5" t="n">
+        <v>83.61</v>
       </c>
     </row>
     <row r="6">
@@ -588,35 +576,23 @@
           <t>03/08/2023</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4141.00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22142.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4142.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>19192.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2950.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>86.68</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4141</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22142</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4142</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19192</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2950</v>
+      </c>
+      <c r="G6" t="n">
+        <v>86.68000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -625,35 +601,23 @@
           <t>03/08/2023</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>26142.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23192.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2950.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
+      <c r="B7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23192</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2950</v>
+      </c>
+      <c r="G7" t="n">
+        <v>88.72</v>
       </c>
     </row>
     <row r="8">
@@ -662,35 +626,23 @@
           <t>05/08/2023</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8000.00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>34142.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8000.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>31192.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2950.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
+      <c r="B8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34142</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31192</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2950</v>
+      </c>
+      <c r="G8" t="n">
+        <v>91.36</v>
       </c>
     </row>
     <row r="9">
@@ -699,34 +651,84 @@
           <t>05/08/2023</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8000.00</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>42142.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8000.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>39192.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>42142</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>39192</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2950</v>
+      </c>
+      <c r="G9" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05/08/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>46142</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>43192</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2950</v>
+      </c>
+      <c r="G10" t="n">
+        <v>93.61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>05/08/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>51142.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48192.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>2950.00</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>93.00</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>94.23</t>
         </is>
       </c>
     </row>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,268 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06/08/8000</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5050</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5050</v>
-      </c>
-      <c r="F2" t="n">
-        <v>49</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100.98</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>08/06/2000</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9050</v>
-      </c>
-      <c r="F3" t="n">
-        <v>49</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100.54</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14050</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1049</v>
-      </c>
-      <c r="G4" t="n">
-        <v>108.07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05/08/5000</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15050</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2951</v>
-      </c>
-      <c r="G5" t="n">
-        <v>83.61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4141</v>
-      </c>
-      <c r="C6" t="n">
-        <v>22142</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4142</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19192</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2950</v>
-      </c>
-      <c r="G6" t="n">
-        <v>86.68000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>26142</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>23192</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2950</v>
-      </c>
-      <c r="G7" t="n">
-        <v>88.72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05/08/2023</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>34142</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31192</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2950</v>
-      </c>
-      <c r="G8" t="n">
-        <v>91.36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05/08/2023</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>42142</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>39192</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2950</v>
-      </c>
-      <c r="G9" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>05/08/2023</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>46142</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>43192</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2950</v>
-      </c>
-      <c r="G10" t="n">
-        <v>93.61</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>05/08/2023</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>51142.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>48192.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2950.00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09/08/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,43 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>120.00</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,205 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4512.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4512.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5012.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5012.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500</v>
+      </c>
+      <c r="G2" t="n">
+        <v>111.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5475.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9987.700000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8451.200000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13463.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3475.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>134.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8800</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18787.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8900</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22363.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3575.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>119.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21/10/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27787.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33363.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5575.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>120.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>22/10/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9000.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36788.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15060.1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>48423.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11635.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>131.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>23/10/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4800.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>41588.30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9220.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57643.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16055.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>138.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7000.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>48588.30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4650.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62293.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13705.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>128.21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,205 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>18/10/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4512.4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4512.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5012.4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5012.4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>500</v>
-      </c>
-      <c r="G2" t="n">
-        <v>111.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>19/10/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5475.3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9987.700000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8451.200000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13463.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3475.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>134.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>20/10/2023</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8800</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18787.7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8900</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22363.6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3575.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>119.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>21/10/2023</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>27787.7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33363.6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5575.9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>120.07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>22/10/2023</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9000.6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>36788.3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15060.1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48423.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11635.4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>131.63</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>23/10/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4800.00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>41588.30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9220.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>57643.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>16055.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>138.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>25/10/2023</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7000.00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>48588.30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4650.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>62293.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>13705.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>128.21</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/08/1998</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_rdmarcas.xlsx
+++ b/app/data/db_rdmarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,37 +473,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1500.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1500.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1500.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200.00</t>
+          <t>08/02/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08/02/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6000.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11000.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10000.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>90.91</t>
         </is>
       </c>
     </row>
